--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8945669999999999</v>
+        <v>0.3425026666666667</v>
       </c>
       <c r="H2">
-        <v>2.683701</v>
+        <v>1.027508</v>
       </c>
       <c r="I2">
-        <v>0.007903265526675985</v>
+        <v>0.00298389995661603</v>
       </c>
       <c r="J2">
-        <v>0.007903265526675985</v>
+        <v>0.00298389995661603</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N2">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q2">
-        <v>23.370070266772</v>
+        <v>8.478799191134222</v>
       </c>
       <c r="R2">
-        <v>210.330632400948</v>
+        <v>76.309192720208</v>
       </c>
       <c r="S2">
-        <v>0.005721064183867497</v>
+        <v>0.002316228794493295</v>
       </c>
       <c r="T2">
-        <v>0.005721064183867497</v>
+        <v>0.002316228794493295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8945669999999999</v>
+        <v>0.3425026666666667</v>
       </c>
       <c r="H3">
-        <v>2.683701</v>
+        <v>1.027508</v>
       </c>
       <c r="I3">
-        <v>0.007903265526675985</v>
+        <v>0.00298389995661603</v>
       </c>
       <c r="J3">
-        <v>0.007903265526675985</v>
+        <v>0.00298389995661603</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N3">
         <v>11.455626</v>
       </c>
       <c r="O3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q3">
-        <v>3.415941661314</v>
+        <v>1.307860817778667</v>
       </c>
       <c r="R3">
-        <v>30.743474951826</v>
+        <v>11.770747360008</v>
       </c>
       <c r="S3">
-        <v>0.0008362328940238881</v>
+        <v>0.0003572799422465461</v>
       </c>
       <c r="T3">
-        <v>0.0008362328940238881</v>
+        <v>0.0003572799422465461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8945669999999999</v>
+        <v>0.3425026666666667</v>
       </c>
       <c r="H4">
-        <v>2.683701</v>
+        <v>1.027508</v>
       </c>
       <c r="I4">
-        <v>0.007903265526675985</v>
+        <v>0.00298389995661603</v>
       </c>
       <c r="J4">
-        <v>0.007903265526675985</v>
+        <v>0.00298389995661603</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N4">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q4">
-        <v>5.498168909493</v>
+        <v>1.136219716410667</v>
       </c>
       <c r="R4">
-        <v>49.48352018543699</v>
+        <v>10.225977447696</v>
       </c>
       <c r="S4">
-        <v>0.0013459684487846</v>
+        <v>0.0003103912198761886</v>
       </c>
       <c r="T4">
-        <v>0.0013459684487846</v>
+        <v>0.0003103912198761886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>292.091904</v>
       </c>
       <c r="I5">
-        <v>0.860185197793775</v>
+        <v>0.8482396435584867</v>
       </c>
       <c r="J5">
-        <v>0.860185197793775</v>
+        <v>0.8482396435584867</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N5">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q5">
-        <v>2543.580048908288</v>
+        <v>2410.286439981056</v>
       </c>
       <c r="R5">
-        <v>22892.22044017459</v>
+        <v>21692.5779598295</v>
       </c>
       <c r="S5">
-        <v>0.6226761216588822</v>
+        <v>0.6584393296044131</v>
       </c>
       <c r="T5">
-        <v>0.6226761216588822</v>
+        <v>0.6584393296044131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>292.091904</v>
       </c>
       <c r="I6">
-        <v>0.860185197793775</v>
+        <v>0.8482396435584867</v>
       </c>
       <c r="J6">
-        <v>0.860185197793775</v>
+        <v>0.8482396435584867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N6">
         <v>11.455626</v>
       </c>
       <c r="O6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q6">
-        <v>371.7884010946561</v>
+        <v>371.788401094656</v>
       </c>
       <c r="R6">
-        <v>3346.095609851905</v>
+        <v>3346.095609851904</v>
       </c>
       <c r="S6">
-        <v>0.09101492983118005</v>
+        <v>0.101564735838362</v>
       </c>
       <c r="T6">
-        <v>0.09101492983118005</v>
+        <v>0.101564735838362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>292.091904</v>
       </c>
       <c r="I7">
-        <v>0.860185197793775</v>
+        <v>0.8482396435584867</v>
       </c>
       <c r="J7">
-        <v>0.860185197793775</v>
+        <v>0.8482396435584867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N7">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q7">
-        <v>598.416375478272</v>
+        <v>322.995616899072</v>
       </c>
       <c r="R7">
-        <v>5385.747379304448</v>
+        <v>2906.960552091648</v>
       </c>
       <c r="S7">
-        <v>0.1464941463037129</v>
+        <v>0.08823557811571156</v>
       </c>
       <c r="T7">
-        <v>0.1464941463037129</v>
+        <v>0.08823557811571157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.93100633333333</v>
+        <v>17.07709166666666</v>
       </c>
       <c r="H8">
-        <v>44.793019</v>
+        <v>51.231275</v>
       </c>
       <c r="I8">
-        <v>0.1319115366795491</v>
+        <v>0.1487764564848973</v>
       </c>
       <c r="J8">
-        <v>0.1319115366795491</v>
+        <v>0.1487764564848973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N8">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q8">
-        <v>390.0643184508457</v>
+        <v>422.7506676646555</v>
       </c>
       <c r="R8">
-        <v>3510.578866057612</v>
+        <v>3804.756008981899</v>
       </c>
       <c r="S8">
-        <v>0.09548892990992529</v>
+        <v>0.1154865503077392</v>
       </c>
       <c r="T8">
-        <v>0.09548892990992527</v>
+        <v>0.1154865503077392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.93100633333333</v>
+        <v>17.07709166666666</v>
       </c>
       <c r="H9">
-        <v>44.793019</v>
+        <v>51.231275</v>
       </c>
       <c r="I9">
-        <v>0.1319115366795491</v>
+        <v>0.1487764564848973</v>
       </c>
       <c r="J9">
-        <v>0.1319115366795491</v>
+        <v>0.1487764564848973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N9">
         <v>11.455626</v>
       </c>
       <c r="O9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q9">
-        <v>57.01467478609935</v>
+        <v>65.20959176701666</v>
       </c>
       <c r="R9">
-        <v>513.1320730748942</v>
+        <v>586.88632590315</v>
       </c>
       <c r="S9">
-        <v>0.01395736555988801</v>
+        <v>0.01781388268822911</v>
       </c>
       <c r="T9">
-        <v>0.01395736555988801</v>
+        <v>0.01781388268822911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.93100633333333</v>
+        <v>17.07709166666666</v>
       </c>
       <c r="H10">
-        <v>44.793019</v>
+        <v>51.231275</v>
       </c>
       <c r="I10">
-        <v>0.1319115366795491</v>
+        <v>0.1487764564848973</v>
       </c>
       <c r="J10">
-        <v>0.1319115366795491</v>
+        <v>0.1487764564848973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N10">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q10">
-        <v>91.76863757480034</v>
+        <v>56.65161220336665</v>
       </c>
       <c r="R10">
-        <v>825.917738173203</v>
+        <v>509.8645098302999</v>
       </c>
       <c r="S10">
-        <v>0.02246524120973579</v>
+        <v>0.01547602348892902</v>
       </c>
       <c r="T10">
-        <v>0.02246524120973579</v>
+        <v>0.01547602348892902</v>
       </c>
     </row>
   </sheetData>
